--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4092"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Pirates</t>
   </si>
@@ -65,7 +65,60 @@
     <t>Ничего нет. Все плохо.</t>
   </si>
   <si>
-    <t>Вроде бы все нормально</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Убрать ссылки на  rutracker. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>По факту у минимум троих (Гуськов, Четвериков, Токаев) нет акаунта на GitHub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>только у трех человек (Зверев, Измалков Акишев) настроена среда разработки -2.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -161,66 +214,45 @@
 тесты для статистики</t>
   </si>
   <si>
-    <t>WCF - Г + Л
-MSQM - З + Л
-ФС - Л
-Интерфейсы - Л</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Убрать ссылки на  rutracker. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">Вроде бы все нормально
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>По факту у минимум троих (Г, Ч, Т) нет акаунта на GitHub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>только у трех человек (З, И А) настроена среда разработки -2.</t>
-    </r>
+  </si>
+  <si>
+    <t>Убрать MongoDb из проекта
+Сделать скрипт для настройки 
+MongoDb + инструкцию по установке
+Закомитить</t>
+  </si>
+  <si>
+    <t>покрытие - 80%
+Надо: поиск по ozon с тестами: по ISBN, по названию, по автору, тесты должны работать без Интернет, документировать язык + описание страниц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WPF, DevExpress
+Готовы показать
+Прототип DevExpress, 
+Queryable (LINQ) + DevExpress + MongoDb </t>
+  </si>
+  <si>
+    <t>WCF - Гуськов + Литвиненко
+MSQM - Зверев + Бакшаев
+ФС - Литвиненко
+Интерфейсы - Литвиненко</t>
+  </si>
+  <si>
+    <t>MongoDb убран,
+скрипт для настройки пока не проверял</t>
+  </si>
+  <si>
+    <t>тесты есть, поиск по озону: имя книги, не умеют отличать результаты поиска нескольких книг (не парсят и не отличают ситуацию), тесты пока не закомичены
+нужно: поиск по автору, названию и ISBN, парсинг языка книги (у книги с одним ISBN - описания на нескольких языках), разбор результатов поиска с неколькими найденными книгами, жду описания языка</t>
+  </si>
+  <si>
+    <t>Оценить возможность использования SQL ServerExpress и MySQL для хранения информации и поиска, а также подсчета статистики. Цель: напрямую зайдействовать DevExpress для визуализации данных через Queryable.</t>
+  </si>
+  <si>
+    <t>что-то делали, но не доделали,
+статистики пока нет, исправления визуального интерфейса + html с информацией о книге</t>
   </si>
 </sst>
 </file>
@@ -289,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,11 +331,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -314,9 +349,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -365,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,20 +641,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>41548</v>
       </c>
@@ -630,21 +664,27 @@
         <v>41555</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,8 +697,14 @@
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -671,8 +717,14 @@
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -685,8 +737,14 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -696,11 +754,11 @@
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -717,7 +775,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -729,7 +787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
